--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>loves</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -58,67 +61,70 @@
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>thank</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>husband</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>sturdy</t>
@@ -127,48 +133,48 @@
     <t>ever</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>bread</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
@@ -187,7 +193,7 @@
     <t>recommend</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>makes</t>
   </si>
   <si>
     <t>bought</t>
@@ -196,19 +202,19 @@
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
+    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.248062015503876</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +694,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +720,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8606811145510835</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>556</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>556</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +772,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8297213622291022</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>536</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>536</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -792,13 +798,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7272727272727273</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -818,13 +824,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7111111111111111</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -870,13 +876,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6883116883116883</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -896,13 +902,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.647887323943662</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -914,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -922,13 +928,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6470588235294118</v>
+        <v>0.6338983050847458</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -940,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -948,13 +954,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -966,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -974,13 +980,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6338983050847458</v>
+        <v>0.6324237560192616</v>
       </c>
       <c r="L15">
-        <v>187</v>
+        <v>788</v>
       </c>
       <c r="M15">
-        <v>187</v>
+        <v>788</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -992,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>108</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1000,13 +1006,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6332263242375602</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L16">
-        <v>789</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>789</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>457</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1026,13 +1032,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1052,13 +1058,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6140350877192983</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1070,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1078,13 +1084,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6122448979591837</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1096,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1104,13 +1110,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5846153846153846</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1122,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1130,13 +1136,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5828571428571429</v>
+        <v>0.59375</v>
       </c>
       <c r="L21">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1148,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1156,13 +1162,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5694444444444444</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1174,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1182,13 +1188,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5396825396825397</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1200,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1234,13 +1240,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5285714285714286</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1252,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1260,13 +1266,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5096153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1278,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1286,13 +1292,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4871794871794872</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L27">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1304,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1312,13 +1318,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4730538922155689</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L28">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1330,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1338,13 +1344,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4586466165413534</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L29">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1356,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1364,13 +1370,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4457831325301205</v>
+        <v>0.4730538922155689</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1382,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1390,13 +1396,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4320987654320987</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1408,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1416,13 +1422,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1434,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1442,13 +1448,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4078947368421053</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1460,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1468,13 +1474,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3815789473684211</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1486,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1520,13 +1526,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3424124513618677</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L36">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="M36">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1538,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>169</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1546,13 +1552,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3383458646616541</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1564,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1572,13 +1578,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3186274509803921</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L38">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1590,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>278</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1598,13 +1604,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2877697841726619</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1616,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1624,13 +1630,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2727272727272727</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="L40">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="M40">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1642,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>152</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1650,13 +1656,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2671232876712329</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L41">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1668,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>535</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1676,13 +1682,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2214765100671141</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1694,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1702,13 +1708,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2163616792249731</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L43">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="M43">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1720,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>728</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1728,13 +1734,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2163009404388715</v>
+        <v>0.232508073196986</v>
       </c>
       <c r="L44">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="M44">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1746,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>250</v>
+        <v>713</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1754,13 +1760,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.1920529801324503</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1772,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1780,13 +1786,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1662404092071611</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L46">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="M46">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1798,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>652</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1806,13 +1812,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1655629139072848</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L47">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1824,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>630</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1832,13 +1838,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.134020618556701</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1850,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>252</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1858,13 +1864,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1293800539083558</v>
+        <v>0.1602649006622517</v>
       </c>
       <c r="L49">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="M49">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1876,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>323</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1884,13 +1890,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1260504201680672</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1902,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>208</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1910,13 +1916,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.121654501216545</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1928,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1936,13 +1942,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.1113636363636364</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L52">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1954,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>391</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1962,13 +1968,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1107011070110701</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -1980,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>241</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -1988,13 +1994,13 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.1002386634844869</v>
+        <v>0.09318181818181819</v>
       </c>
       <c r="L54">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2006,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>377</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2014,13 +2020,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.08114035087719298</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L55">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M55">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2032,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>419</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2040,25 +2046,25 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.06349206349206349</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L56">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M56">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="N56">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1003</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2066,25 +2072,77 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.06025824964131994</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L57">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M57">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N57">
+        <v>0.97</v>
+      </c>
+      <c r="O57">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58">
+        <v>0.05228758169934641</v>
+      </c>
+      <c r="L58">
+        <v>56</v>
+      </c>
+      <c r="M58">
+        <v>57</v>
+      </c>
+      <c r="N58">
         <v>0.98</v>
       </c>
-      <c r="O57">
+      <c r="O58">
         <v>0.02000000000000002</v>
       </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>655</v>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K59">
+        <v>0.02770562770562771</v>
+      </c>
+      <c r="L59">
+        <v>32</v>
+      </c>
+      <c r="M59">
+        <v>34</v>
+      </c>
+      <c r="N59">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
